--- a/bh3/559894775681277823_2021-08-17_19-17-41.xlsx
+++ b/bh3/559894775681277823_2021-08-17_19-17-41.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-08-19 09:24:56</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44427.39231481482</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -610,10 +624,8 @@
           <t>5195710997</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-08-18 22:56:35</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44426.95596064815</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -682,10 +694,8 @@
           <t>5194289021</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:26:08</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44426.85148148148</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -753,10 +763,8 @@
           <t>5192550380</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:17:29</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44426.72047453704</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -833,10 +841,8 @@
           <t>5192511783</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:13:08</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44426.71745370371</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -915,10 +921,8 @@
           <t>5192056018</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:15:23</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44426.67734953704</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -990,10 +994,8 @@
           <t>5192034683</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:13:25</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44426.6759837963</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1065,10 +1067,8 @@
           <t>5191899136</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-08-18 15:54:21</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44426.66274305555</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1144,10 +1144,8 @@
           <t>5189972717</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:50:02</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44426.4930787037</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1215,10 +1213,8 @@
           <t>5189818133</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:31:07</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44426.47994212963</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1290,10 +1286,8 @@
           <t>5186631593</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:30:44</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44426.47967592593</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1362,10 +1356,8 @@
           <t>5186631593</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:29:37</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44426.47890046296</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1429,10 +1421,8 @@
           <t>5186631593</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:28:30</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44426.478125</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1501,10 +1491,8 @@
           <t>5186631593</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:27:50</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44426.47766203704</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1581,10 +1569,8 @@
           <t>5186631593</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:27:49</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44426.47765046296</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1648,10 +1634,8 @@
           <t>5186631593</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:26:56</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44426.47703703704</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1728,10 +1712,8 @@
           <t>5186631593</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:26:25</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44426.47667824074</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1800,10 +1782,8 @@
           <t>5186631593</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:26:05</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44426.47644675926</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1880,10 +1860,8 @@
           <t>5186631593</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:25:39</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44426.47614583333</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1960,10 +1938,8 @@
           <t>5186631593</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:25:09</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44426.47579861111</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2040,10 +2016,8 @@
           <t>5186631593</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:24:50</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44426.47557870371</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2120,10 +2094,8 @@
           <t>5186631593</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:24:36</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44426.47541666667</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2200,10 +2172,8 @@
           <t>5186631593</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:24:05</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44426.47505787037</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2267,10 +2237,8 @@
           <t>5186631593</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:23:34</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44426.47469907408</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2334,10 +2302,8 @@
           <t>5186631593</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:21:42</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44426.47340277778</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2401,10 +2367,8 @@
           <t>5189313706</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:18:51</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44426.47142361111</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2473,10 +2437,8 @@
           <t>5186631593</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:18:39</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44426.47128472223</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2545,10 +2507,8 @@
           <t>5189313706</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:15:15</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44426.46892361111</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2625,10 +2585,8 @@
           <t>5186631593</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:14:37</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44426.4684837963</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2705,10 +2663,8 @@
           <t>5186631593</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:13:47</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44426.46790509259</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2787,10 +2743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:42:00</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44426.44583333333</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
@@ -2863,10 +2817,8 @@
           <t>5186269062</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:34:09</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44426.44038194444</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2930,10 +2882,8 @@
           <t>5189327291</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:22:38</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44426.43238425926</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3001,10 +2951,8 @@
           <t>5189313706</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:21:09</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44426.43135416666</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3073,10 +3021,8 @@
           <t>5189294543</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:18:25</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44426.42945601852</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3152,10 +3098,8 @@
           <t>5186631593</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:12:25</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44426.42528935185</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3219,10 +3163,8 @@
           <t>5186631593</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-08-18 09:45:13</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44426.40640046296</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3299,10 +3241,8 @@
           <t>5186631593</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-08-18 09:44:46</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44426.40608796296</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3379,10 +3319,8 @@
           <t>5188852920</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-08-18 09:06:01</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44426.37917824074</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3458,10 +3396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:45:19</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44426.36480324074</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3537,10 +3473,8 @@
           <t>5188741067</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:42:38</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44426.36293981481</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3605,10 +3539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:41:36</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44426.36222222223</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -3672,10 +3604,8 @@
           <t>5188674225</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:30:54</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44426.35479166666</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3739,10 +3669,8 @@
           <t>5186631593</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:14:33</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44426.3434375</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3806,10 +3734,8 @@
           <t>5188587831</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:10:23</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44426.34054398148</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3885,10 +3811,8 @@
           <t>5188585191</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:08:30</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44426.33923611111</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3952,10 +3876,8 @@
           <t>5188476064</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-08-18 07:38:46</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44426.31858796296</v>
       </c>
       <c r="I48" t="n">
         <v>2</v>
@@ -4054,10 +3976,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-08-18 07:27:26</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44426.31071759259</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4125,10 +4045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-08-18 07:21:18</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44426.30645833333</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4200,10 +4118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-08-18 07:06:53</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44426.29644675926</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4267,10 +4183,8 @@
           <t>5187066925</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-08-18 07:06:18</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44426.29604166667</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4338,10 +4252,8 @@
           <t>5188031710</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-08-18 02:50:35</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44426.11846064815</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4405,10 +4317,8 @@
           <t>5187998553</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-08-18 02:38:55</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44426.11035879629</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4480,10 +4390,8 @@
           <t>5187952261</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-08-18 02:21:22</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44426.0981712963</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4559,10 +4467,8 @@
           <t>5187941590</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-08-18 02:16:16</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44426.09462962963</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4630,10 +4536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-08-18 01:42:21</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44426.07107638889</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -4705,10 +4609,8 @@
           <t>5186375459</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-08-18 01:13:34</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44426.05108796297</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4776,10 +4678,8 @@
           <t>5187656258</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-08-18 01:06:26</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44426.04613425926</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4851,10 +4751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-08-18 01:06:09</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44426.0459375</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4922,10 +4820,8 @@
           <t>5186795261</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-08-18 01:04:50</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44426.04502314814</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4997,10 +4893,8 @@
           <t>5187579874</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-08-18 00:54:45</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44426.03802083333</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -5064,10 +4958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-08-18 00:34:50</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44426.02418981482</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -5135,10 +5027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-08-18 00:14:12</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44426.00986111111</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5206,10 +5096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-08-18 00:09:20</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44426.00648148148</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5281,10 +5169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-08-18 00:08:22</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44426.00581018518</v>
       </c>
       <c r="I66" t="n">
         <v>6</v>
@@ -5347,10 +5233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-08-18 00:08:14</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44426.00571759259</v>
       </c>
       <c r="I67" t="n">
         <v>3</v>
@@ -5414,10 +5298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-08-18 00:08:08</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44426.00564814815</v>
       </c>
       <c r="I68" t="n">
         <v>3</v>
@@ -5477,10 +5359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-08-18 00:08:03</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44426.00559027777</v>
       </c>
       <c r="I69" t="n">
         <v>2</v>
@@ -5540,10 +5420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-08-18 00:07:10</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44426.00497685185</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5619,10 +5497,8 @@
           <t>5186331549</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-08-17 23:53:29</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44425.99547453703</v>
       </c>
       <c r="I71" t="n">
         <v>3</v>
@@ -5686,10 +5562,8 @@
           <t>5187066925</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-08-17 23:51:35</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44425.99415509259</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5757,10 +5631,8 @@
           <t>5187066925</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-08-17 23:43:44</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44425.9887037037</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5828,10 +5700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-08-17 23:37:05</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44425.98408564815</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -5907,10 +5777,8 @@
           <t>5186331549</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-08-17 23:25:17</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44425.97589120371</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5978,10 +5846,8 @@
           <t>5186331549</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-08-17 23:18:35</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44425.97123842593</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6045,10 +5911,8 @@
           <t>5186795261</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-08-17 23:12:46</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44425.96719907408</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6112,10 +5976,8 @@
           <t>5186630020</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-08-17 23:07:30</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44425.96354166666</v>
       </c>
       <c r="I78" t="n">
         <v>3</v>
@@ -6191,10 +6053,8 @@
           <t>5186696235</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-08-17 23:02:37</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44425.96015046296</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6271,10 +6131,8 @@
           <t>5186691051</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-08-17 23:02:25</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44425.96001157408</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6351,10 +6209,8 @@
           <t>5186684749</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-08-17 23:02:01</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44425.9597337963</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6431,10 +6287,8 @@
           <t>5186683344</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-08-17 23:01:34</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44425.9594212963</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6511,10 +6365,8 @@
           <t>5186680238</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-08-17 23:00:41</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44425.95880787037</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6591,10 +6443,8 @@
           <t>5186651758</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:58:06</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44425.95701388889</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6671,10 +6521,8 @@
           <t>5186631593</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:56:57</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44425.95621527778</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6751,10 +6599,8 @@
           <t>5186631593</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:56:11</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44425.95568287037</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6829,10 +6675,8 @@
           <t>5186630020</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:55:42</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44425.95534722223</v>
       </c>
       <c r="I87" t="n">
         <v>12</v>
@@ -6904,10 +6748,8 @@
           <t>5186331549</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:54:27</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44425.95447916666</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6975,10 +6817,8 @@
           <t>5186577382</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:53:38</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44425.95391203704</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7055,10 +6895,8 @@
           <t>5186577382</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:52:45</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44425.95329861111</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7135,10 +6973,8 @@
           <t>5186577382</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:50:42</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44425.951875</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7213,10 +7049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:50:01</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44425.95140046296</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -7284,10 +7118,8 @@
           <t>5186570802</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:49:51</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44425.95128472222</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7362,10 +7194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:47:36</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44425.94972222222</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7441,10 +7271,8 @@
           <t>5186178275</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:47:10</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44425.9494212963</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7521,10 +7349,8 @@
           <t>5186178275</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:46:48</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44425.94916666667</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7601,10 +7427,8 @@
           <t>5186178275</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:46:23</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44425.94887731481</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7681,10 +7505,8 @@
           <t>5186178275</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:45:49</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44425.9484837963</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7761,10 +7583,8 @@
           <t>5186178275</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:41:19</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44425.9453587963</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7839,10 +7659,8 @@
           <t>5186178275</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:40:20</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44425.94467592592</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7917,10 +7735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:39:37</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44425.94417824074</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7985,10 +7801,8 @@
           <t>5186178275</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:33:55</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44425.94021990741</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -8065,10 +7879,8 @@
           <t>5186178275</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:33:44</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44425.94009259259</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8145,10 +7957,8 @@
           <t>5186178275</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:32:55</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44425.93952546296</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8225,10 +8035,8 @@
           <t>5186178275</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:32:44</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44425.93939814815</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8305,10 +8113,8 @@
           <t>5186178275</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:31:11</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44425.93832175926</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8383,10 +8189,8 @@
           <t>5186375459</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:29:29</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44425.93714120371</v>
       </c>
       <c r="I107" t="n">
         <v>7</v>
@@ -8462,10 +8266,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:29:15</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44425.93697916667</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8529,10 +8331,8 @@
           <t>5184736791</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:28:43</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44425.9366087963</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8604,10 +8404,8 @@
           <t>5186178275</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:27:47</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44425.93596064814</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8684,10 +8482,8 @@
           <t>5186178275</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:27:13</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44425.93556712963</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8764,10 +8560,8 @@
           <t>5186178275</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:26:57</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44425.93538194444</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8844,10 +8638,8 @@
           <t>5186178275</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:26:47</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44425.93526620371</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8924,10 +8716,8 @@
           <t>5186269062</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:26:44</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44425.93523148148</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8991,10 +8781,8 @@
           <t>5186139716</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:26:17</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44425.93491898148</v>
       </c>
       <c r="I115" t="n">
         <v>7</v>
@@ -9066,10 +8854,8 @@
           <t>5186178275</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:26:06</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44425.93479166667</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -9146,10 +8932,8 @@
           <t>5186178275</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:26:00</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44425.93472222222</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9226,10 +9010,8 @@
           <t>5186331549</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:25:21</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44425.93427083334</v>
       </c>
       <c r="I118" t="n">
         <v>6</v>
@@ -9293,10 +9075,8 @@
           <t>5186325119</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:24:47</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44425.93387731481</v>
       </c>
       <c r="I119" t="n">
         <v>2</v>
@@ -9360,10 +9140,8 @@
           <t>5186313461</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:24:16</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44425.93351851852</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9427,10 +9205,8 @@
           <t>5186178275</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:24:10</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44425.93344907407</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9505,10 +9281,8 @@
           <t>5186315103</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:23:34</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44425.93303240741</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9572,10 +9346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:21:35</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44425.93165509259</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9639,10 +9411,8 @@
           <t>5186269062</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:19:46</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44425.93039351852</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9706,10 +9476,8 @@
           <t>5186276271</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:19:41</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44425.93033564815</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9787,10 +9555,8 @@
           <t>5186178275</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:18:46</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44425.92969907408</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9867,10 +9633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:16:32</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44425.92814814814</v>
       </c>
       <c r="I127" t="n">
         <v>12</v>
@@ -9948,10 +9712,8 @@
           <t>5186229288</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:15:08</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44425.92717592593</v>
       </c>
       <c r="I128" t="n">
         <v>2</v>
@@ -10031,10 +9793,8 @@
           <t>5186228586</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:14:53</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44425.92700231481</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -10098,10 +9858,8 @@
           <t>5186178275</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:10:01</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44425.92362268519</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -10176,10 +9934,8 @@
           <t>5186139716</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:06:25</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44425.92112268518</v>
       </c>
       <c r="I131" t="n">
         <v>30</v>
@@ -10248,10 +10004,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:02:56</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44425.9187037037</v>
       </c>
       <c r="I132" t="n">
         <v>40</v>
@@ -10329,10 +10083,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-08-17 22:00:01</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44425.91667824074</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10408,10 +10160,8 @@
           <t>5186064643</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-08-17 21:58:39</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44425.91572916666</v>
       </c>
       <c r="I134" t="n">
         <v>2</v>
@@ -10487,10 +10237,8 @@
           <t>5185893333</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-08-17 21:58:10</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44425.91539351852</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10567,10 +10315,8 @@
           <t>5185893333</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-08-17 21:55:51</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44425.91378472222</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10634,10 +10380,8 @@
           <t>5185893333</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-08-17 21:48:57</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44425.90899305556</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10714,10 +10458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-08-17 21:48:46</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44425.90886574074</v>
       </c>
       <c r="I138" t="n">
         <v>4</v>
@@ -10793,10 +10535,8 @@
           <t>5184736791</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-08-17 21:39:51</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44425.90267361111</v>
       </c>
       <c r="I139" t="n">
         <v>2</v>
@@ -10864,10 +10604,8 @@
           <t>5185893333</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-08-17 21:39:29</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44425.90241898148</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10931,10 +10669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-08-17 21:39:25</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44425.90237268519</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -11007,10 +10743,8 @@
           <t>5185887572</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-08-17 21:39:07</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44425.90216435185</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -11078,10 +10812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-08-17 21:34:42</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44425.89909722222</v>
       </c>
       <c r="I143" t="n">
         <v>8</v>
@@ -11153,10 +10885,8 @@
           <t>5185726702</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-08-17 21:21:30</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44425.88993055555</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11224,10 +10954,8 @@
           <t>5185702684</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-08-17 21:20:58</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44425.88956018518</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11291,10 +11019,8 @@
           <t>5185710325</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-08-17 21:20:40</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44425.88935185185</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11362,10 +11088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-08-17 21:20:02</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44425.88891203704</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11437,10 +11161,8 @@
           <t>5185710325</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-08-17 21:19:22</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44425.88844907407</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11508,10 +11230,8 @@
           <t>5185702684</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-08-17 21:18:31</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44425.8878587963</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11579,10 +11299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-08-17 21:15:18</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44425.885625</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11654,10 +11372,8 @@
           <t>5184964327</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-08-17 21:13:38</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44425.88446759259</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11725,10 +11441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-08-17 21:13:34</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44425.88442129629</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11792,10 +11506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-08-17 21:09:11</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44425.88137731481</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11863,10 +11575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-08-17 21:08:25</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44425.88084490741</v>
       </c>
       <c r="I154" t="n">
         <v>7</v>
@@ -11934,10 +11644,8 @@
           <t>5184736791</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-08-17 21:06:41</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44425.8796412037</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -12013,10 +11721,8 @@
           <t>5185529077</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-08-17 21:00:31</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44425.87535879629</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -12092,10 +11798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:58:33</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44425.87399305555</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12163,10 +11867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:57:17</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44425.87311342593</v>
       </c>
       <c r="I158" t="n">
         <v>6</v>
@@ -12242,10 +11944,8 @@
           <t>5185279988</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:56:14</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44425.87238425926</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12309,10 +12009,8 @@
           <t>5185276228</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:56:06</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44425.87229166667</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12376,10 +12074,8 @@
           <t>5185483383</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:55:15</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44425.87170138889</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12451,10 +12147,8 @@
           <t>5185460811</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:53:16</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44425.87032407407</v>
       </c>
       <c r="I162" t="n">
         <v>3</v>
@@ -12522,10 +12216,8 @@
           <t>5185460811</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:52:09</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44425.86954861111</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12597,10 +12289,8 @@
           <t>5184797573</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:51:48</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44425.86930555556</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12676,10 +12366,8 @@
           <t>5185002209</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:51:04</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44425.86879629629</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12743,10 +12431,8 @@
           <t>5185429192</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:49:33</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44425.86774305555</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12806,10 +12492,8 @@
           <t>5185271897</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:48:10</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44425.86678240741</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -12873,10 +12557,8 @@
           <t>5184797573</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:46:32</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44425.86564814814</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12948,10 +12630,8 @@
           <t>5185405139</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:45:58</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44425.86525462963</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -13019,10 +12699,8 @@
           <t>5185271897</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:45:22</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44425.86483796296</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -13086,10 +12764,8 @@
           <t>5184887777</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:45:07</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44425.86466435185</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13153,10 +12829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:44:56</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44425.86453703704</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13220,10 +12894,8 @@
           <t>5185395657</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:44:46</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44425.8644212963</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13291,10 +12963,8 @@
           <t>5185367379</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:42:09</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44425.86260416666</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13370,10 +13040,8 @@
           <t>5185358599</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:41:45</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44425.86232638889</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13449,10 +13117,8 @@
           <t>5185360663</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:41:24</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44425.86208333333</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13520,10 +13186,8 @@
           <t>5185357308</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:41:19</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44425.86202546296</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13599,10 +13263,8 @@
           <t>5184736791</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:40:43</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44425.86160879629</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13674,10 +13336,8 @@
           <t>5185344249</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:40:17</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44425.86130787037</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13753,10 +13413,8 @@
           <t>5185350404</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:40:05</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44425.86116898148</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13832,10 +13490,8 @@
           <t>5185339442</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:39:48</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44425.86097222222</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13911,10 +13567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:39:42</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44425.86090277778</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13978,10 +13632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:39:05</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44425.86047453704</v>
       </c>
       <c r="I183" t="n">
         <v>132</v>
@@ -14049,10 +13701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:37:50</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44425.85960648148</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -14116,10 +13766,8 @@
           <t>5184962754</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:35:16</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44425.85782407408</v>
       </c>
       <c r="I185" t="n">
         <v>2</v>
@@ -14183,10 +13831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:34:35</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44425.85734953704</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14263,10 +13909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:34:08</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44425.85703703704</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14330,10 +13974,8 @@
           <t>5185279988</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:33:43</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44425.85674768518</v>
       </c>
       <c r="I188" t="n">
         <v>3</v>
@@ -14401,10 +14043,8 @@
           <t>5185276228</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:32:27</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44425.85586805556</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14481,10 +14121,8 @@
           <t>5185271897</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:31:28</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44425.85518518519</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -14548,10 +14186,8 @@
           <t>5185265365</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:31:00</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44425.85486111111</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14623,10 +14259,8 @@
           <t>5185251527</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:29:40</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44425.85393518519</v>
       </c>
       <c r="I192" t="n">
         <v>4</v>
@@ -14694,10 +14328,8 @@
           <t>5185247813</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:29:35</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44425.85387731482</v>
       </c>
       <c r="I193" t="n">
         <v>1</v>
@@ -14769,10 +14401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:29:34</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44425.85386574074</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14836,10 +14466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:29:21</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44425.85371527778</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14907,10 +14535,8 @@
           <t>5185213620</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:26:01</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44425.85140046296</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14982,10 +14608,8 @@
           <t>5185185089</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:21:58</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44425.84858796297</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
@@ -15049,10 +14673,8 @@
           <t>5184964327</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:21:51</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44425.84850694444</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15124,10 +14746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:21:11</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44425.84804398148</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15199,10 +14819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:20:42</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44425.84770833333</v>
       </c>
       <c r="I200" t="n">
         <v>2</v>
@@ -15270,10 +14888,8 @@
           <t>5185139363</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:20:23</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44425.84748842593</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15341,10 +14957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:18:55</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44425.84646990741</v>
       </c>
       <c r="I202" t="n">
         <v>1</v>
@@ -15408,10 +15022,8 @@
           <t>5185139363</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:18:17</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44425.84603009259</v>
       </c>
       <c r="I203" t="n">
         <v>5</v>
@@ -15479,10 +15091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:17:20</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44425.84537037037</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15546,10 +15156,8 @@
           <t>5185113709</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:16:58</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44425.84511574074</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15621,10 +15229,8 @@
           <t>5185127662</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:16:06</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44425.84451388889</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15696,10 +15302,8 @@
           <t>5185127448</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:16:01</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44425.84445601852</v>
       </c>
       <c r="I207" t="n">
         <v>3</v>
@@ -15771,10 +15375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:15:24</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44425.84402777778</v>
       </c>
       <c r="I208" t="n">
         <v>7</v>
@@ -15851,10 +15453,8 @@
           <t>5185086659</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:11:43</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44425.84146990741</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15930,10 +15530,8 @@
           <t>5185085033</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:11:12</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44425.84111111111</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -16010,10 +15608,8 @@
           <t>5185074697</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:11:09</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44425.84107638889</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -16085,10 +15681,8 @@
           <t>5184736791</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:10:43</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44425.84077546297</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16160,10 +15754,8 @@
           <t>5184964327</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:09:25</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44425.83987268519</v>
       </c>
       <c r="I213" t="n">
         <v>2</v>
@@ -16239,10 +15831,8 @@
           <t>5184736791</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:07:37</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44425.83862268519</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -16318,10 +15908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:06:47</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44425.83804398148</v>
       </c>
       <c r="I215" t="n">
         <v>1</v>
@@ -16397,10 +15985,8 @@
           <t>5185037985</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:05:56</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44425.8374537037</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16468,10 +16054,8 @@
           <t>5184964327</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:04:55</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44425.83674768519</v>
       </c>
       <c r="I217" t="n">
         <v>2</v>
@@ -16543,10 +16127,8 @@
           <t>5185019948</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:04:51</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44425.83670138889</v>
       </c>
       <c r="I218" t="n">
         <v>8</v>
@@ -16622,10 +16204,8 @@
           <t>5184736791</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:04:38</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44425.83655092592</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16689,10 +16269,8 @@
           <t>5185013418</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:03:29</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44425.83575231482</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16768,10 +16346,8 @@
           <t>5185012011</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:02:58</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44425.83539351852</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16843,10 +16419,8 @@
           <t>5185002209</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:02:09</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44425.83482638889</v>
       </c>
       <c r="I222" t="n">
         <v>4</v>
@@ -16922,10 +16496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:01:46</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44425.83456018518</v>
       </c>
       <c r="I223" t="n">
         <v>2</v>
@@ -17001,10 +16573,8 @@
           <t>5184971477</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:01:03</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44425.8340625</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
@@ -17076,10 +16646,8 @@
           <t>5184971477</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:59:59</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44425.83332175926</v>
       </c>
       <c r="I225" t="n">
         <v>2</v>
@@ -17155,10 +16723,8 @@
           <t>5184985718</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:59:55</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44425.83327546297</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17234,10 +16800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:59:46</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44425.8331712963</v>
       </c>
       <c r="I227" t="n">
         <v>81</v>
@@ -17301,10 +16865,8 @@
           <t>5184974149</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:59:23</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44425.83290509259</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -17380,10 +16942,8 @@
           <t>5184971477</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:58:26</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44425.83224537037</v>
       </c>
       <c r="I229" t="n">
         <v>3</v>
@@ -17455,10 +17015,8 @@
           <t>5184964327</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:58:23</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44425.83221064815</v>
       </c>
       <c r="I230" t="n">
         <v>1</v>
@@ -17534,10 +17092,8 @@
           <t>5184962754</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:57:50</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44425.8318287037</v>
       </c>
       <c r="I231" t="n">
         <v>2</v>
@@ -17609,10 +17165,8 @@
           <t>5184956224</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:56:36</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44425.83097222223</v>
       </c>
       <c r="I232" t="n">
         <v>2</v>
@@ -17688,10 +17242,8 @@
           <t>5184944082</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:55:52</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44425.83046296296</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17767,10 +17319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:54:35</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44425.82957175926</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17846,10 +17396,8 @@
           <t>5184921575</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:52:49</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44425.82834490741</v>
       </c>
       <c r="I235" t="n">
         <v>5</v>
@@ -17925,10 +17473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:51:13</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44425.8272337963</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -18004,10 +17550,8 @@
           <t>5184736791</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:51:04</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44425.82712962963</v>
       </c>
       <c r="I237" t="n">
         <v>3</v>
@@ -18083,10 +17627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:50:28</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44425.82671296296</v>
       </c>
       <c r="I238" t="n">
         <v>2</v>
@@ -18158,10 +17700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:49:06</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44425.82576388889</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -18238,10 +17778,8 @@
           <t>5184887777</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:49:01</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44425.82570601852</v>
       </c>
       <c r="I240" t="n">
         <v>5</v>
@@ -18313,10 +17851,8 @@
           <t>5184877332</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:48:47</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44425.82554398148</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18380,10 +17916,8 @@
           <t>5184736791</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:48:27</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44425.8253125</v>
       </c>
       <c r="I242" t="n">
         <v>3</v>
@@ -18455,10 +17989,8 @@
           <t>5184877332</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:48:19</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44425.8252199074</v>
       </c>
       <c r="I243" t="n">
         <v>3</v>
@@ -18532,10 +18064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:47:36</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44425.82472222222</v>
       </c>
       <c r="I244" t="n">
         <v>61</v>
@@ -18607,10 +18137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:47:06</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44425.824375</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18674,10 +18202,8 @@
           <t>5184867715</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:46:53</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44425.82422453703</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -18751,10 +18277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:46:03</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44425.82364583333</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18830,10 +18354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:45:26</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44425.8232175926</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18909,10 +18431,8 @@
           <t>5184848399</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:45:12</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44425.82305555556</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18976,10 +18496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:44:05</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44425.82228009259</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -19055,10 +18573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:44:02</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44425.82224537037</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -19126,10 +18642,8 @@
           <t>5184807488</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:43:31</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44425.82188657407</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -19193,10 +18707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:42:24</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44425.82111111111</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -19264,10 +18776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:42:13</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44425.82098379629</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19345,10 +18855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:41:52</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44425.82074074074</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19420,10 +18928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:41:15</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44425.8203125</v>
       </c>
       <c r="I256" t="n">
         <v>70</v>
@@ -19495,10 +19001,8 @@
           <t>5184807488</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:39:56</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44425.81939814815</v>
       </c>
       <c r="I257" t="n">
         <v>12</v>
@@ -19562,10 +19066,8 @@
           <t>5184797573</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:39:07</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44425.81883101852</v>
       </c>
       <c r="I258" t="n">
         <v>43</v>
@@ -19642,10 +19144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:38:14</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44425.81821759259</v>
       </c>
       <c r="I259" t="n">
         <v>8</v>
@@ -19709,10 +19209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:38:03</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44425.81809027777</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19788,10 +19286,8 @@
           <t>5184790613</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:37:29</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44425.81769675926</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19867,10 +19363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:37:22</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44425.81761574074</v>
       </c>
       <c r="I262" t="n">
         <v>24</v>
@@ -19938,10 +19432,8 @@
           <t>5184785625</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:37:22</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44425.81761574074</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -20009,10 +19501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:37:10</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44425.81747685185</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -20088,10 +19578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:36:07</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44425.81674768519</v>
       </c>
       <c r="I265" t="n">
         <v>160</v>
@@ -20166,10 +19654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:36:06</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44425.81673611111</v>
       </c>
       <c r="I266" t="n">
         <v>40</v>
@@ -20233,10 +19719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:35:47</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44425.8165162037</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20361,10 +19845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:35:40</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44425.81643518519</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20432,10 +19914,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:35:17</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44425.81616898148</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -20503,10 +19983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:35:11</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44425.81609953703</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20573,10 +20051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:34:35</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44425.81568287037</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20644,10 +20120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:33:26</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44425.81488425926</v>
       </c>
       <c r="I272" t="n">
         <v>1</v>
@@ -20724,10 +20198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:33:09</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44425.8146875</v>
       </c>
       <c r="I273" t="n">
         <v>1</v>
@@ -20799,10 +20271,8 @@
           <t>5184669969</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:33:06</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44425.81465277778</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20866,10 +20336,8 @@
           <t>5184747280</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:32:52</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44425.81449074074</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20937,10 +20405,8 @@
           <t>5184736791</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:32:39</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44425.81434027778</v>
       </c>
       <c r="I276" t="n">
         <v>12</v>
@@ -21016,10 +20482,8 @@
           <t>5184728543</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:32:27</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44425.81420138889</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -21095,10 +20559,8 @@
           <t>5184735866</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:32:19</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44425.81410879629</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -21170,10 +20632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:31:46</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44425.81372685185</v>
       </c>
       <c r="I279" t="n">
         <v>1</v>
@@ -21237,10 +20697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:31:46</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44425.81372685185</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -21312,10 +20770,8 @@
           <t>5184733616</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:31:43</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44425.81369212963</v>
       </c>
       <c r="I281" t="n">
         <v>1</v>
@@ -21391,10 +20847,8 @@
           <t>5184728543</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:31:30</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44425.81354166667</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -21466,10 +20920,8 @@
           <t>5184727828</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:31:16</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44425.81337962963</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21545,10 +20997,8 @@
           <t>5184722289</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:31:03</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44425.81322916667</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21628,10 +21078,8 @@
           <t>5184709418</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:30:03</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44425.81253472222</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21703,10 +21151,8 @@
           <t>5184709079</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:29:56</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44425.8124537037</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21778,10 +21224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:29:40</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44425.81226851852</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21853,10 +21297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:28:15</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44425.81128472222</v>
       </c>
       <c r="I288" t="n">
         <v>2</v>
@@ -21928,10 +21370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:27:30</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44425.81076388889</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21999,10 +21439,8 @@
           <t>5184626532</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:26:45</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44425.81024305556</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -22070,10 +21508,8 @@
           <t>5184642102</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:26:42</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44425.81020833334</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -22145,10 +21581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:26:36</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44425.81013888889</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -22208,10 +21642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:26:35</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44425.81012731481</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -22288,10 +21720,8 @@
           <t>5184643599</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:26:31</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44425.81008101852</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -22363,10 +21793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:26:27</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44425.81003472222</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22442,10 +21870,8 @@
           <t>5184677978</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:26:21</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44425.80996527777</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22517,10 +21943,8 @@
           <t>5184682841</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:26:11</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44425.80984953704</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22584,10 +22008,8 @@
           <t>5184669969</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:26:07</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44425.80980324074</v>
       </c>
       <c r="I298" t="n">
         <v>1</v>
@@ -22651,10 +22073,8 @@
           <t>5184677978</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:25:59</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44425.80971064815</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22726,10 +22146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:25:58</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44425.80969907407</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22797,10 +22215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:25:53</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44425.8096412037</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22868,10 +22284,8 @@
           <t>5184674420</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:25:50</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44425.80960648148</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22939,10 +22353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:25:42</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44425.80951388889</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -23014,10 +22426,8 @@
           <t>5184669969</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:25:13</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44425.80917824074</v>
       </c>
       <c r="I304" t="n">
         <v>17</v>
@@ -23089,10 +22499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:24:33</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44425.80871527778</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -23168,10 +22576,8 @@
           <t>5184662730</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:24:08</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44425.80842592593</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -23243,10 +22649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:24:02</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44425.80835648148</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -23314,10 +22718,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:23:54</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44425.80826388889</v>
       </c>
       <c r="I308" t="n">
         <v>2</v>
@@ -23393,10 +22795,8 @@
           <t>5184657782</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:23:46</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44425.8081712963</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23472,10 +22872,8 @@
           <t>5184626532</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:23:38</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44425.8080787037</v>
       </c>
       <c r="I310" t="n">
         <v>2</v>
@@ -23551,10 +22949,8 @@
           <t>5184661047</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:23:33</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44425.80802083333</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23626,10 +23022,8 @@
           <t>5184653460</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:23:01</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44425.80765046296</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23697,10 +23091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:22:58</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44425.80761574074</v>
       </c>
       <c r="I313" t="n">
         <v>15</v>
@@ -23776,10 +23168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:22:58</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44425.80761574074</v>
       </c>
       <c r="I314" t="n">
         <v>5</v>
@@ -23855,10 +23245,8 @@
           <t>5184626532</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:22:58</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44425.80761574074</v>
       </c>
       <c r="I315" t="n">
         <v>1</v>
@@ -23934,10 +23322,8 @@
           <t>5184643599</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:22:27</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44425.80725694444</v>
       </c>
       <c r="I316" t="n">
         <v>9</v>
@@ -24013,10 +23399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:22:25</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44425.80723379629</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -24089,10 +23473,8 @@
           <t>5184621691</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:22:25</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44425.80723379629</v>
       </c>
       <c r="I318" t="n">
         <v>1</v>
@@ -24168,10 +23550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:22:20</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44425.80717592593</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -24250,10 +23630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:22:20</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44425.80717592593</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -24329,10 +23707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:22:10</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44425.80706018519</v>
       </c>
       <c r="I321" t="n">
         <v>2</v>
@@ -24400,10 +23776,8 @@
           <t>5184642102</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:22:00</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44425.80694444444</v>
       </c>
       <c r="I322" t="n">
         <v>2</v>
@@ -24479,10 +23853,8 @@
           <t>5184646406</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:21:56</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44425.80689814815</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24554,10 +23926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:21:47</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44425.80679398148</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -24621,10 +23991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:21:45</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44425.80677083333</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24692,10 +24060,8 @@
           <t>5184639734</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:21:45</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44425.80677083333</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24763,10 +24129,8 @@
           <t>5184626532</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:21:42</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44425.80673611111</v>
       </c>
       <c r="I327" t="n">
         <v>6</v>
@@ -24834,10 +24198,8 @@
           <t>5184645479</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:21:36</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44425.80666666666</v>
       </c>
       <c r="I328" t="n">
         <v>3</v>
@@ -24905,10 +24267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:21:36</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44425.80666666666</v>
       </c>
       <c r="I329" t="n">
         <v>2</v>
@@ -24984,10 +24344,8 @@
           <t>5184639026</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:21:32</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44425.80662037037</v>
       </c>
       <c r="I330" t="n">
         <v>2</v>
@@ -25063,10 +24421,8 @@
           <t>5184626532</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:21:26</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44425.80655092592</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -25134,10 +24490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:21:26</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44425.80655092592</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -25209,10 +24563,8 @@
           <t>5184638674</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:21:25</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44425.80653935186</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -25284,10 +24636,8 @@
           <t>5184626532</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:21:25</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44425.80653935186</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -25359,10 +24709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:21:19</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44425.80646990741</v>
       </c>
       <c r="I335" t="n">
         <v>2</v>
@@ -25438,10 +24786,8 @@
           <t>5184637744</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:21:06</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44425.80631944445</v>
       </c>
       <c r="I336" t="n">
         <v>4</v>
@@ -25509,10 +24855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:20:59</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44425.80623842592</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25584,10 +24928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:20:56</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44425.8062037037</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25651,10 +24993,8 @@
           <t>5184633449</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:20:56</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44425.8062037037</v>
       </c>
       <c r="I339" t="n">
         <v>1</v>
@@ -25722,10 +25062,8 @@
           <t>5184637026</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:20:52</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44425.80615740741</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25793,10 +25131,8 @@
           <t>5184626532</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:20:46</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44425.80608796296</v>
       </c>
       <c r="I341" t="n">
         <v>7</v>
@@ -25880,10 +25216,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:20:41</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44425.80603009259</v>
       </c>
       <c r="I342" t="n">
         <v>11</v>
@@ -25947,10 +25281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:20:15</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44425.80572916667</v>
       </c>
       <c r="I343" t="n">
         <v>13</v>
@@ -26014,10 +25346,8 @@
           <t>5184626532</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:20:12</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44425.80569444445</v>
       </c>
       <c r="I344" t="n">
         <v>2</v>
@@ -26077,10 +25407,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:20:11</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44425.80568287037</v>
       </c>
       <c r="I345" t="n">
         <v>50</v>
@@ -26152,10 +25480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:19:59</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44425.80554398148</v>
       </c>
       <c r="I346" t="n">
         <v>1</v>
@@ -26227,10 +25553,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:19:59</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44425.80554398148</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -26298,10 +25622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:19:55</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44425.80549768519</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -26365,10 +25687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:19:47</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44425.80540509259</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -26432,10 +25752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:19:23</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44425.80512731482</v>
       </c>
       <c r="I350" t="n">
         <v>69</v>
@@ -26513,10 +25831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:19:16</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44425.80504629629</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
@@ -26584,10 +25900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:19:10</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44425.80497685185</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
@@ -26660,10 +25974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:19:10</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44425.80497685185</v>
       </c>
       <c r="I353" t="n">
         <v>184</v>
@@ -26739,10 +26051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:19:08</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44425.8049537037</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -26814,10 +26124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:19:07</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44425.80494212963</v>
       </c>
       <c r="I355" t="n">
         <v>1</v>
@@ -26885,10 +26193,8 @@
           <t>5184621691</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:19:03</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44425.80489583333</v>
       </c>
       <c r="I356" t="n">
         <v>13</v>
@@ -26960,10 +26266,8 @@
           <t>5184617095</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:19:00</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44425.80486111111</v>
       </c>
       <c r="I357" t="n">
         <v>6</v>
@@ -27031,10 +26335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:18:55</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44425.80480324074</v>
       </c>
       <c r="I358" t="n">
         <v>1</v>
@@ -27102,10 +26404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:18:49</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44425.8047337963</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -27177,10 +26477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:18:49</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44425.8047337963</v>
       </c>
       <c r="I360" t="n">
         <v>1</v>
@@ -27240,10 +26538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:18:47</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44425.80471064815</v>
       </c>
       <c r="I361" t="n">
         <v>2</v>
@@ -27311,10 +26607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:18:47</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44425.80471064815</v>
       </c>
       <c r="I362" t="n">
         <v>936</v>
@@ -27382,10 +26676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:18:46</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44425.80469907408</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -27461,10 +26753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:18:41</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44425.8046412037</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -27540,10 +26830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:18:39</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44425.80461805555</v>
       </c>
       <c r="I365" t="n">
         <v>1</v>
@@ -27611,10 +26899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:18:39</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44425.80461805555</v>
       </c>
       <c r="I366" t="n">
         <v>1</v>
@@ -27690,10 +26976,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:18:34</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44425.80456018518</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27761,10 +27045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:18:33</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44425.80454861111</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
@@ -27836,10 +27118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:18:24</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44425.80444444445</v>
       </c>
       <c r="I369" t="n">
         <v>170</v>
@@ -27911,10 +27191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:18:23</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44425.80443287037</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27982,10 +27260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:18:17</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44425.80436342592</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -28053,10 +27329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:18:17</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44425.80436342592</v>
       </c>
       <c r="I372" t="n">
         <v>1</v>
@@ -28124,10 +27398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:18:02</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44425.80418981481</v>
       </c>
       <c r="I373" t="n">
         <v>321</v>
@@ -28203,10 +27475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:18:02</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44425.80418981481</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -28282,10 +27552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:18:00</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44425.80416666667</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -28354,10 +27622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:17:59</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44425.80415509259</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -28433,10 +27699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:17:59</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44425.80415509259</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
